--- a/trunk/Sprint 1 UserStories.xlsx
+++ b/trunk/Sprint 1 UserStories.xlsx
@@ -858,51 +858,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -915,6 +870,51 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1494,7 +1494,7 @@
       <c r="B5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="56" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       <c r="B6" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="57" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       <c r="B7" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="57" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1527,7 +1527,7 @@
       <c r="B8" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="58" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1652,7 +1652,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
@@ -1667,7 +1667,7 @@
       <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="60" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4"/>
@@ -1682,7 +1682,7 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="60" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4"/>
@@ -1697,7 +1697,7 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4"/>
@@ -1712,7 +1712,7 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4"/>
@@ -1727,7 +1727,7 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4"/>
@@ -1749,7 +1749,7 @@
       <c r="J8" s="5">
         <v>2</v>
       </c>
-      <c r="K8" s="76" t="s">
+      <c r="K8" s="61" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       <c r="J9" s="5">
         <v>4</v>
       </c>
-      <c r="K9" s="76" t="s">
+      <c r="K9" s="61" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="J10" s="5">
         <v>2</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1867,24 +1867,24 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E13" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="18"/>
       <c r="J13" s="5">
-        <v>12</v>
-      </c>
-      <c r="K13" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="61" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1894,24 +1894,24 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="18"/>
       <c r="J14" s="5">
-        <v>12</v>
-      </c>
-      <c r="K14" s="76" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="61" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1921,22 +1921,22 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D15" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E15" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="18"/>
       <c r="J15" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>116</v>
@@ -1965,7 +1965,7 @@
       <c r="J16" s="5">
         <v>2</v>
       </c>
-      <c r="K16" s="76" t="s">
+      <c r="K16" s="61" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="J17" s="2">
         <v>4</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="62" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2038,19 +2038,19 @@
     <row r="21" spans="1:11" ht="13.5" thickBot="1">
       <c r="C21" s="9">
         <f>SUMIF(K3:K17,C20,J3:J17)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D21" s="9">
         <f>SUMIF(K3:K17,D20,J3:J17)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="9">
         <f>SUMIF(K3:K17,E20,J3:J17)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F21" s="9">
         <f>SUMIF(K3:K17,F20,J3:J17)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G21" s="9">
         <f>SUMIF(K3:K17,G20,J3:J17)</f>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="J21" s="1">
         <f>SUM(J3:J17)</f>
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1"/>
@@ -2073,14 +2073,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="70"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2089,48 +2089,48 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="64"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="72"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="64"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="72"/>
     </row>
     <row r="27" spans="1:11" ht="13.5" thickBot="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="72"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="25" t="s">
@@ -2139,48 +2139,48 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="64"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="71"/>
+      <c r="H29" s="72"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:11" ht="13.5" thickBot="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="64"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="25" t="s">
@@ -2189,36 +2189,36 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="72"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" thickBot="1">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="64"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="25" t="s">
@@ -2227,24 +2227,24 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="72"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="25" t="s">
@@ -2253,48 +2253,48 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="65"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="67"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="63"/>
-      <c r="H38" s="64"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="72"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" thickBot="1">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="64"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="21" t="s">
@@ -2303,72 +2303,72 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="71"/>
+      <c r="G42" s="71"/>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
+      <c r="F43" s="71"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="63"/>
-      <c r="H44" s="64"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
+      <c r="F44" s="71"/>
+      <c r="G44" s="71"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="63"/>
-      <c r="F45" s="63"/>
-      <c r="G45" s="63"/>
-      <c r="H45" s="64"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" thickBot="1">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="62" t="s">
+      <c r="C46" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="64"/>
+      <c r="D46" s="71"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="71"/>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="21" t="s">
@@ -2377,96 +2377,96 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="65"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="62" t="s">
+      <c r="C48" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="64"/>
+      <c r="D48" s="71"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="71"/>
+      <c r="H48" s="72"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="F49" s="71"/>
+      <c r="G49" s="71"/>
+      <c r="H49" s="72"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="62" t="s">
+      <c r="C50" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
+      <c r="D50" s="71"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="71"/>
+      <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="64"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="71"/>
+      <c r="F51" s="71"/>
+      <c r="G51" s="71"/>
+      <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="64"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="71"/>
+      <c r="H52" s="72"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="62" t="s">
+      <c r="C53" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="63"/>
-      <c r="G53" s="63"/>
-      <c r="H53" s="64"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
+      <c r="G53" s="71"/>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="1:8" ht="13.5" thickBot="1">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="62" t="s">
+      <c r="C54" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="64"/>
+      <c r="D54" s="71"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="71"/>
+      <c r="H54" s="72"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="25" t="s">
@@ -2475,48 +2475,48 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="62" t="s">
+      <c r="C56" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="63"/>
-      <c r="E56" s="63"/>
-      <c r="F56" s="63"/>
-      <c r="G56" s="63"/>
-      <c r="H56" s="64"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="72"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="62" t="s">
+      <c r="C57" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="64"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
     </row>
     <row r="58" spans="1:8" ht="13.5" thickBot="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="62" t="s">
+      <c r="C58" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="63"/>
-      <c r="E58" s="63"/>
-      <c r="F58" s="63"/>
-      <c r="G58" s="63"/>
-      <c r="H58" s="64"/>
+      <c r="D58" s="71"/>
+      <c r="E58" s="71"/>
+      <c r="F58" s="71"/>
+      <c r="G58" s="71"/>
+      <c r="H58" s="72"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="21" t="s">
@@ -2525,48 +2525,48 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="62" t="s">
+      <c r="C60" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="63"/>
-      <c r="G60" s="63"/>
-      <c r="H60" s="64"/>
+      <c r="D60" s="71"/>
+      <c r="E60" s="71"/>
+      <c r="F60" s="71"/>
+      <c r="G60" s="71"/>
+      <c r="H60" s="72"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="C61" s="62" t="s">
+      <c r="C61" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="64"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="72"/>
     </row>
     <row r="62" spans="1:8" ht="13.5" thickBot="1">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="C62" s="62" t="s">
+      <c r="C62" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="64"/>
+      <c r="D62" s="71"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="71"/>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="21" t="s">
@@ -2575,24 +2575,24 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
-      <c r="G64" s="63"/>
-      <c r="H64" s="64"/>
+      <c r="D64" s="71"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="71"/>
+      <c r="H64" s="72"/>
     </row>
     <row r="65" spans="1:8" ht="25.5" customHeight="1">
       <c r="A65" s="21" t="s">
@@ -2601,48 +2601,48 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="65"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="63"/>
-      <c r="E66" s="63"/>
-      <c r="F66" s="63"/>
-      <c r="G66" s="63"/>
-      <c r="H66" s="64"/>
+      <c r="D66" s="71"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="71"/>
+      <c r="H66" s="72"/>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="62" t="s">
+      <c r="C67" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D67" s="63"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="64"/>
+      <c r="D67" s="71"/>
+      <c r="E67" s="71"/>
+      <c r="F67" s="71"/>
+      <c r="G67" s="71"/>
+      <c r="H67" s="72"/>
     </row>
     <row r="68" spans="1:8" ht="13.5" thickBot="1">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="62" t="s">
+      <c r="C68" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="64"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="71"/>
+      <c r="F68" s="71"/>
+      <c r="G68" s="71"/>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="21" t="s">
@@ -2651,48 +2651,48 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="65"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="62" t="s">
+      <c r="C70" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D70" s="63"/>
-      <c r="E70" s="63"/>
-      <c r="F70" s="63"/>
-      <c r="G70" s="63"/>
-      <c r="H70" s="64"/>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="72"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="62" t="s">
+      <c r="C71" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="63"/>
-      <c r="F71" s="63"/>
-      <c r="G71" s="63"/>
-      <c r="H71" s="64"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="72"/>
     </row>
     <row r="72" spans="1:8" ht="13.5" thickBot="1">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D72" s="63"/>
-      <c r="E72" s="63"/>
-      <c r="F72" s="63"/>
-      <c r="G72" s="63"/>
-      <c r="H72" s="64"/>
+      <c r="D72" s="71"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="72"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="21" t="s">
@@ -2701,48 +2701,48 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="65"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="69"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
-      <c r="G74" s="63"/>
-      <c r="H74" s="64"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="71"/>
+      <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="62" t="s">
+      <c r="C75" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="D75" s="63"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="64"/>
+      <c r="D75" s="71"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="71"/>
+      <c r="H75" s="72"/>
     </row>
     <row r="76" spans="1:8" ht="13.5" thickBot="1">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="62" t="s">
+      <c r="C76" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="64"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="72"/>
     </row>
     <row r="77" spans="1:8" ht="25.5">
       <c r="A77" s="21" t="s">
@@ -2751,36 +2751,36 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="65"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="62" t="s">
+      <c r="C78" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="63"/>
-      <c r="E78" s="63"/>
-      <c r="F78" s="63"/>
-      <c r="G78" s="63"/>
-      <c r="H78" s="64"/>
+      <c r="D78" s="71"/>
+      <c r="E78" s="71"/>
+      <c r="F78" s="71"/>
+      <c r="G78" s="71"/>
+      <c r="H78" s="72"/>
     </row>
     <row r="79" spans="1:8" ht="13.5" thickBot="1">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="62" t="s">
+      <c r="C79" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="63"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="63"/>
-      <c r="H79" s="64"/>
+      <c r="D79" s="71"/>
+      <c r="E79" s="71"/>
+      <c r="F79" s="71"/>
+      <c r="G79" s="71"/>
+      <c r="H79" s="72"/>
     </row>
     <row r="80" spans="1:8" ht="25.5">
       <c r="A80" s="21" t="s">
@@ -2789,56 +2789,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="65"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="69"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="56" t="s">
+      <c r="C81" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="57"/>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="58"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="75"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="56" t="s">
+      <c r="C82" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="57"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="58"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="75"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="59" t="s">
+      <c r="C83" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="61"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -2851,50 +2890,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">

--- a/trunk/Sprint 1 UserStories.xlsx
+++ b/trunk/Sprint 1 UserStories.xlsx
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="C21:F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/trunk/Sprint 1 UserStories.xlsx
+++ b/trunk/Sprint 1 UserStories.xlsx
@@ -872,6 +872,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -880,42 +916,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1585,8 +1585,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2073,14 +2073,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="66"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="78"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2089,12 +2089,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="69"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="75"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
@@ -2139,12 +2139,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="69"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="75"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
@@ -2189,12 +2189,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="69"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="75"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
@@ -2227,12 +2227,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="69"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="75"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
@@ -2253,12 +2253,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="69"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="75"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
@@ -2303,12 +2303,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="69"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="75"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
@@ -2377,12 +2377,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="69"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="75"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
@@ -2475,12 +2475,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="74"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="75"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
@@ -2525,12 +2525,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="69"/>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="75"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
@@ -2575,12 +2575,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="68"/>
-      <c r="H63" s="69"/>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="75"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
@@ -2601,12 +2601,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="68"/>
-      <c r="H65" s="69"/>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="75"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
@@ -2651,12 +2651,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="69"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="75"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
@@ -2701,12 +2701,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="69"/>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="74"/>
+      <c r="G73" s="74"/>
+      <c r="H73" s="75"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
@@ -2751,12 +2751,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="68"/>
-      <c r="H77" s="69"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="75"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
@@ -2789,59 +2789,92 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="69"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="74"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="74"/>
+      <c r="H80" s="75"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="73" t="s">
+      <c r="C81" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="74"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="74"/>
-      <c r="G81" s="74"/>
-      <c r="H81" s="75"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="66"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="74"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="74"/>
-      <c r="G82" s="74"/>
-      <c r="H82" s="75"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="66"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="78"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
     <mergeCell ref="C75:H75"/>
     <mergeCell ref="C64:H64"/>
     <mergeCell ref="C65:H65"/>
@@ -2854,47 +2887,14 @@
     <mergeCell ref="C72:H72"/>
     <mergeCell ref="C73:H73"/>
     <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">

--- a/trunk/Sprint 1 UserStories.xlsx
+++ b/trunk/Sprint 1 UserStories.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="126">
   <si>
     <t>As a team member, I want to design the interface for the game through pictures</t>
   </si>
@@ -771,7 +771,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -872,6 +872,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -890,32 +917,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1585,8 +1588,8 @@
   </sheetPr>
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:H54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1697,19 +1700,31 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="5">
+        <v>2</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="60" t="s">
@@ -2038,7 +2053,7 @@
     <row r="21" spans="1:11" ht="13.5" thickBot="1">
       <c r="C21" s="9">
         <f>SUMIF(K3:K17,C20,J3:J17)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D21" s="9">
         <f>SUMIF(K3:K17,D20,J3:J17)</f>
@@ -2062,7 +2077,7 @@
       </c>
       <c r="J21" s="1">
         <f>SUM(J3:J17)</f>
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" thickBot="1"/>
@@ -2073,14 +2088,14 @@
       <c r="B23" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="25" t="s">
@@ -2089,12 +2104,12 @@
       <c r="B24" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="4"/>
@@ -2139,12 +2154,12 @@
       <c r="B28" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="4"/>
@@ -2189,12 +2204,12 @@
       <c r="B32" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4"/>
@@ -2227,12 +2242,12 @@
       <c r="B35" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" thickBot="1">
       <c r="A36" s="4"/>
@@ -2253,12 +2268,12 @@
       <c r="B37" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4"/>
@@ -2303,12 +2318,12 @@
       <c r="B41" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
-      <c r="H41" s="75"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="6"/>
@@ -2377,12 +2392,12 @@
       <c r="B47" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="74"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="75"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="69"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="6"/>
@@ -2475,12 +2490,12 @@
       <c r="B55" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="73"/>
-      <c r="D55" s="74"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="74"/>
-      <c r="G55" s="74"/>
-      <c r="H55" s="75"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="4"/>
@@ -2525,12 +2540,12 @@
       <c r="B59" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="73"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="74"/>
-      <c r="G59" s="74"/>
-      <c r="H59" s="75"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="69"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="6"/>
@@ -2575,12 +2590,12 @@
       <c r="B63" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="74"/>
-      <c r="F63" s="74"/>
-      <c r="G63" s="74"/>
-      <c r="H63" s="75"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="68"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="69"/>
     </row>
     <row r="64" spans="1:8" ht="13.5" thickBot="1">
       <c r="A64" s="6"/>
@@ -2601,12 +2616,12 @@
       <c r="B65" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="74"/>
-      <c r="F65" s="74"/>
-      <c r="G65" s="74"/>
-      <c r="H65" s="75"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="68"/>
+      <c r="F65" s="68"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="4"/>
@@ -2651,12 +2666,12 @@
       <c r="B69" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="74"/>
-      <c r="E69" s="74"/>
-      <c r="F69" s="74"/>
-      <c r="G69" s="74"/>
-      <c r="H69" s="75"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="68"/>
+      <c r="F69" s="68"/>
+      <c r="G69" s="68"/>
+      <c r="H69" s="69"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="4"/>
@@ -2701,12 +2716,12 @@
       <c r="B73" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74"/>
-      <c r="G73" s="74"/>
-      <c r="H73" s="75"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="68"/>
+      <c r="F73" s="68"/>
+      <c r="G73" s="68"/>
+      <c r="H73" s="69"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="4"/>
@@ -2751,12 +2766,12 @@
       <c r="B77" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="74"/>
-      <c r="E77" s="74"/>
-      <c r="F77" s="74"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="75"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="68"/>
+      <c r="H77" s="69"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6"/>
@@ -2789,56 +2804,95 @@
       <c r="B80" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="74"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="74"/>
-      <c r="H80" s="75"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="68"/>
+      <c r="G80" s="68"/>
+      <c r="H80" s="69"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="26"/>
       <c r="B81" s="26"/>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="66"/>
+      <c r="D81" s="74"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="74"/>
+      <c r="G81" s="74"/>
+      <c r="H81" s="75"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="66"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="74"/>
+      <c r="G82" s="74"/>
+      <c r="H82" s="75"/>
     </row>
     <row r="83" spans="1:8" ht="13.5" thickBot="1">
       <c r="A83" s="24"/>
       <c r="B83" s="24"/>
-      <c r="C83" s="67" t="s">
+      <c r="C83" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="69"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C76:H76"/>
+    <mergeCell ref="C77:H77"/>
+    <mergeCell ref="C78:H78"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C75:H75"/>
+    <mergeCell ref="C64:H64"/>
+    <mergeCell ref="C65:H65"/>
+    <mergeCell ref="C66:H66"/>
+    <mergeCell ref="C67:H67"/>
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:H69"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="C71:H71"/>
+    <mergeCell ref="C72:H72"/>
+    <mergeCell ref="C73:H73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:H58"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C62:H62"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="C50:H50"/>
     <mergeCell ref="C39:H39"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="C29:H29"/>
@@ -2851,50 +2905,11 @@
     <mergeCell ref="C36:H36"/>
     <mergeCell ref="C37:H37"/>
     <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:H58"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C62:H62"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="C64:H64"/>
-    <mergeCell ref="C65:H65"/>
-    <mergeCell ref="C66:H66"/>
-    <mergeCell ref="C67:H67"/>
-    <mergeCell ref="C68:H68"/>
-    <mergeCell ref="C69:H69"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:H82"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C76:H76"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A24">
